--- a/Шаблоны/Идентификаторы.xlsx
+++ b/Шаблоны/Идентификаторы.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11832" tabRatio="839" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" tabRatio="839" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="УК АИФ ПИФ" sheetId="26" r:id="rId1"/>
@@ -36,11 +36,19 @@
     <sheet name="Худож.ценности" sheetId="20" r:id="rId27"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="741">
   <si>
     <t>Идентификатор Кредитной организации</t>
   </si>
@@ -1390,9 +1398,6 @@
   </si>
   <si>
     <t>Договор № АК-54 от 19.07.2019 г.</t>
-  </si>
-  <si>
-    <t>Азов-ДУ-А-24</t>
   </si>
   <si>
     <t>Правила доверительного управления №3216 от 15.09.2016г.</t>
@@ -1620,12 +1625,6 @@
     <t>Договор аренды недвижимого имущества № А-11/1 от 01.02.2019</t>
   </si>
   <si>
-    <t>Договор купли-продажи объектов недвижимости №А-35 от 06.08.2018 г.</t>
-  </si>
-  <si>
-    <t>Договор уступки прав требования №А-24 от 10.05.2018 г.</t>
-  </si>
-  <si>
     <t>Азов-ДУ-А-52</t>
   </si>
   <si>
@@ -1686,9 +1685,6 @@
     <t>Азов-ДКПОН-А-49</t>
   </si>
   <si>
-    <t>Азов-ДКПОН-А-35</t>
-  </si>
-  <si>
     <t>Фокина Е.П.</t>
   </si>
   <si>
@@ -1992,9 +1988,6 @@
     <t>2019-12-06</t>
   </si>
   <si>
-    <t>Азов-УК-12/19</t>
-  </si>
-  <si>
     <t>Налог на имущество</t>
   </si>
   <si>
@@ -2079,12 +2072,6 @@
     <t>Дон-Договор_12-РСБУ/ИА-231/2018</t>
   </si>
   <si>
-    <t>Азов-УК-01/20</t>
-  </si>
-  <si>
-    <t>01/20</t>
-  </si>
-  <si>
     <t>40701810700000001505</t>
   </si>
   <si>
@@ -2115,21 +2102,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>Азов-УК-02/20</t>
-  </si>
-  <si>
-    <t>02/20</t>
-  </si>
-  <si>
-    <t>402002810900070000166</t>
-  </si>
-  <si>
-    <t>40200281000070000176</t>
-  </si>
-  <si>
     <t>Кубань-Договор процентного займа К-8</t>
   </si>
   <si>
@@ -2151,18 +2123,6 @@
     <t>РПИ-УК-03/20</t>
   </si>
   <si>
-    <t>Кубань-СД-03/20</t>
-  </si>
-  <si>
-    <t>Кубань-СР-03/20</t>
-  </si>
-  <si>
-    <t>Кубань-УК-03/20</t>
-  </si>
-  <si>
-    <t>ООО "Регистратор"ДонФАО"</t>
-  </si>
-  <si>
     <t>ИП Балковская Д.Г.</t>
   </si>
   <si>
@@ -2199,9 +2159,6 @@
     <t>Оплата государственной пошлины в суд</t>
   </si>
   <si>
-    <t>РПИ -Договор_РПИ-5-03/20</t>
-  </si>
-  <si>
     <t>РПИ -Договор_РПИ-5/судебный приказ</t>
   </si>
   <si>
@@ -2232,25 +2189,91 @@
     <t>03/20</t>
   </si>
   <si>
-    <t>Азов-СД-03/20</t>
-  </si>
-  <si>
     <t>Азов-НДС_I кв/2020</t>
   </si>
   <si>
     <t>НДС</t>
   </si>
   <si>
-    <t>Азов-Аудитор-03/20</t>
-  </si>
-  <si>
     <t>Азов-Налог на имущество_I кв/20</t>
   </si>
   <si>
-    <t>Договор №12-РСБУ/ИА-234/2018 на проведение аудиторской проверки</t>
-  </si>
-  <si>
-    <t>Общество с ограниченной ответсвенностью "Регистратор "ДонФАО"</t>
+    <t>42002810600070000194</t>
+  </si>
+  <si>
+    <t>Чернышова Ольга Петровна</t>
+  </si>
+  <si>
+    <t>Чернышова О.П.</t>
+  </si>
+  <si>
+    <t>42002810900070000195</t>
+  </si>
+  <si>
+    <t>РПИ -Договор_РПИ-5-04/20</t>
+  </si>
+  <si>
+    <t>РПИ -Договор_РПИ-5-04/20п</t>
+  </si>
+  <si>
+    <t>Азов-ДА-А-11/1-04/20</t>
+  </si>
+  <si>
+    <t>Азов-УК-04/20</t>
+  </si>
+  <si>
+    <t>04/20</t>
+  </si>
+  <si>
+    <t>Азов-СД-04/20</t>
+  </si>
+  <si>
+    <t>ООО_Парус</t>
+  </si>
+  <si>
+    <t>ООО_Бриг</t>
+  </si>
+  <si>
+    <t>Азов-ДА-А-5/1-05/20</t>
+  </si>
+  <si>
+    <t>Азов-ДА-А-10/1-05/20</t>
+  </si>
+  <si>
+    <t>Договор аренды недвижимого имущества №А-10/1</t>
+  </si>
+  <si>
+    <t>Договор аренды недвижимого имущества №А-5/1</t>
+  </si>
+  <si>
+    <t>ООО ФИК "Бизнес Проект"</t>
+  </si>
+  <si>
+    <t>Договор аренды недвижимого имущества №/Ц10/1 от 27.03.2020</t>
+  </si>
+  <si>
+    <t>Центр-ДА/Ц10/1-04/20</t>
+  </si>
+  <si>
+    <t>Кубань-Договор процентного займа К-9</t>
+  </si>
+  <si>
+    <t>К-9</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>Кубань-СД-04/20</t>
+  </si>
+  <si>
+    <t>Кубань-СР-04/20</t>
+  </si>
+  <si>
+    <t>Кубань-УК-04/20</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Регистратор "ДонФАО"</t>
   </si>
 </sst>
 </file>
@@ -2401,28 +2424,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <fill>
         <patternFill>
@@ -3193,7 +3195,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3205,24 +3207,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2" s="2">
         <v>6164111800</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -3232,10 +3234,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3249,12 +3251,12 @@
         <v>374</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>375</v>
@@ -3262,7 +3264,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s">
         <v>376</v>
@@ -3270,7 +3272,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
         <v>377</v>
@@ -3286,7 +3288,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B6" t="s">
         <v>380</v>
@@ -3350,7 +3352,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B14" t="s">
         <v>395</v>
@@ -3358,7 +3360,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B15" t="s">
         <v>396</v>
@@ -3374,7 +3376,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B17" t="s">
         <v>399</v>
@@ -3382,7 +3384,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B18" t="s">
         <v>400</v>
@@ -3390,39 +3392,47 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B19" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B20" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="B22" t="s">
-        <v>707</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>717</v>
+      </c>
+      <c r="B23" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3433,7 +3443,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D25"/>
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3448,13 +3458,13 @@
         <v>401</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3476,7 +3486,7 @@
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3488,7 +3498,7 @@
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3500,129 +3510,129 @@
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B5" s="24">
         <v>1912</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>408</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>574</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -3634,7 +3644,7 @@
       <c r="B15" s="23"/>
       <c r="C15" s="26"/>
       <c r="D15" s="28" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -3646,7 +3656,7 @@
       <c r="B16" s="23"/>
       <c r="C16" s="26"/>
       <c r="D16" s="28" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -3655,16 +3665,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>648</v>
-      </c>
       <c r="D17" s="28" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -3676,7 +3686,7 @@
       <c r="B18" s="23"/>
       <c r="C18" s="26"/>
       <c r="D18" s="28" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -3688,7 +3698,7 @@
       <c r="B19" s="23"/>
       <c r="C19" s="26"/>
       <c r="D19" s="28" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -3697,16 +3707,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -3715,21 +3725,31 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="D21" s="28"/>
+        <v>685</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
@@ -4003,31 +4023,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B10">
-    <cfRule type="duplicateValues" dxfId="48" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C1048576 A1:C16">
-    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
+  <conditionalFormatting sqref="A23:C1048576 A1:C16">
+    <cfRule type="duplicateValues" dxfId="35" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="46" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C19 A17:B17">
-    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="44" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="43" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4053,15 +4079,15 @@
         <v>414</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>415</v>
@@ -4077,10 +4103,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C4" t="s">
         <v>418</v>
@@ -4096,10 +4122,10 @@
     </row>
     <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>421</v>
@@ -4115,10 +4141,10 @@
     </row>
     <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>424</v>
@@ -4150,10 +4176,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4161,24 +4187,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4191,7 +4217,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B3" s="2">
         <v>6163069169</v>
@@ -4199,15 +4225,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B5" s="2">
         <v>7701983954</v>
@@ -4215,18 +4241,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B6" s="2">
         <v>6152001137</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2309136240</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4234,10 +4268,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4251,7 +4285,7 @@
         <v>431</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4281,7 +4315,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>438</v>
@@ -4290,34 +4324,34 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>721</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>523</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
         <v>440</v>
@@ -4326,7 +4360,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>440</v>
@@ -4335,42 +4369,43 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
         <v>440</v>
       </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>641</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>654</v>
+        <v>443</v>
+      </c>
+      <c r="B12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>683</v>
-      </c>
-      <c r="B13" t="s">
-        <v>643</v>
+        <v>637</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B14" t="s">
-        <v>676</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>718</v>
+        <v>672</v>
       </c>
       <c r="B15" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4378,24 +4413,48 @@
         <v>719</v>
       </c>
       <c r="B16" t="s">
-        <v>717</v>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>720</v>
+      </c>
+      <c r="B17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>702</v>
+      </c>
+      <c r="B18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>733</v>
+      </c>
+      <c r="B19" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B12 B2:B9">
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+  <conditionalFormatting sqref="B13 B2:B10">
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A1048576 A1:A14">
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+  <conditionalFormatting sqref="A19:A1048576 A1:A15">
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+  <conditionalFormatting sqref="A16:A18">
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B16">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+  <conditionalFormatting sqref="B16:B19">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4403,10 +4462,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4417,15 +4476,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B2">
         <v>7708213619</v>
@@ -4433,7 +4492,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B3">
         <v>2310122059</v>
@@ -4441,7 +4500,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B4">
         <v>6164111800</v>
@@ -4449,7 +4508,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B5">
         <v>7710198911</v>
@@ -4457,7 +4516,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B6">
         <v>6163020692</v>
@@ -4465,7 +4524,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B7">
         <v>6141019936</v>
@@ -4473,7 +4532,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B8">
         <v>6152001137</v>
@@ -4481,7 +4540,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B9">
         <v>7705380065</v>
@@ -4489,7 +4548,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B10">
         <v>2311024047</v>
@@ -4497,21 +4556,37 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="B11">
         <v>7701983954</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>725</v>
+      </c>
+      <c r="B12">
+        <v>6102040980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>726</v>
+      </c>
+      <c r="B13">
+        <v>2632805194</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4520,10 +4595,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4538,15 +4613,15 @@
         <v>447</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="B2" t="s">
         <v>525</v>
@@ -4554,51 +4629,55 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>710</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>462</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>722</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>462</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>659</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>679</v>
+        <v>526</v>
+      </c>
+      <c r="C6" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4606,331 +4685,292 @@
         <v>727</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>728</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B9" t="s">
         <v>729</v>
-      </c>
-      <c r="B9" t="s">
-        <v>653</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>733</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C10" t="s">
-        <v>650</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>730</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>731</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>732</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
-        <v>734</v>
+        <v>454</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>651</v>
       </c>
       <c r="B14" t="s">
-        <v>449</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>656</v>
+        <v>457</v>
       </c>
       <c r="B17" t="s">
-        <v>657</v>
+        <v>458</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="B18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>696</v>
       </c>
       <c r="B19" t="s">
-        <v>461</v>
+        <v>697</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>578</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="B22" t="s">
-        <v>713</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>582</v>
+        <v>688</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>583</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>584</v>
+        <v>689</v>
       </c>
       <c r="B24" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>583</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B25" t="s">
-        <v>504</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>505</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="B26" t="s">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>506</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>701</v>
+        <v>656</v>
       </c>
       <c r="B27" t="s">
-        <v>451</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>721</v>
+        <v>659</v>
       </c>
       <c r="B28" t="s">
-        <v>722</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B29" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B30" t="s">
         <v>662</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="B31" t="s">
-        <v>663</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>666</v>
+        <v>737</v>
       </c>
       <c r="B32" t="s">
-        <v>667</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>650</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>668</v>
+        <v>738</v>
       </c>
       <c r="B33" t="s">
-        <v>667</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>669</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>681</v>
+        <v>739</v>
       </c>
       <c r="B34" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>702</v>
-      </c>
-      <c r="B35" t="s">
-        <v>686</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>703</v>
-      </c>
-      <c r="B36" t="s">
-        <v>688</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>704</v>
-      </c>
-      <c r="B37" t="s">
-        <v>687</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:C17">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="B38:B1048576 B24:B34 B2:B11 B13:B22">
-    <cfRule type="duplicateValues" dxfId="27" priority="16"/>
+  <conditionalFormatting sqref="B35:B1048576 B21:B31 B2:B19">
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C1048576 C2:C34">
-    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
+  <conditionalFormatting sqref="C35:C1048576 C2:C31">
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:A1048576 A24:A34 A1:A11 A13:A22">
-    <cfRule type="duplicateValues" dxfId="25" priority="10"/>
+  <conditionalFormatting sqref="A35:A1048576 A21:A31 A1:A19">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B37">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+  <conditionalFormatting sqref="B32:B34">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C37">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+  <conditionalFormatting sqref="C32:C34">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A37">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  <conditionalFormatting sqref="A32:A34">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4955,20 +4995,20 @@
         <v>19</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4978,8 +5018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4993,7 +5033,7 @@
         <v>409</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5014,10 +5054,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" t="s">
         <v>575</v>
-      </c>
-      <c r="B2" t="s">
-        <v>579</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -5038,10 +5078,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3" t="s">
         <v>576</v>
-      </c>
-      <c r="B3" t="s">
-        <v>580</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5062,29 +5102,29 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>705</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5139,58 +5179,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5507,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5485,24 +5525,24 @@
         <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>512</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2" s="10">
         <v>3216</v>
@@ -5511,18 +5551,18 @@
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E2" s="17">
         <v>7708213619</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="10">
         <v>3426</v>
@@ -5531,18 +5571,18 @@
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>515</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4" s="10">
         <v>3379</v>
@@ -5551,18 +5591,18 @@
         <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>515</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B5" s="10">
         <v>3402</v>
@@ -5571,18 +5611,18 @@
         <v>6</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E5" s="19">
         <v>7705380065</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" s="10">
         <v>3736</v>
@@ -5591,18 +5631,18 @@
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>515</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B7" s="10">
         <v>3839</v>
@@ -5611,73 +5651,76 @@
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>515</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C8" s="11">
         <v>6</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>515</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>690</v>
+        <v>667</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3973</v>
       </c>
       <c r="C9" s="11">
         <v>6</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>515</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>516</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C6 A10:C1048576 C7">
-    <cfRule type="duplicateValues" dxfId="69" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F1">
-    <cfRule type="duplicateValues" dxfId="68" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="67" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="66" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C9">
-    <cfRule type="duplicateValues" dxfId="65" priority="4"/>
+  <conditionalFormatting sqref="B8:C8 C9">
+    <cfRule type="duplicateValues" dxfId="62" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="64" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5688,7 +5731,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5704,13 +5747,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>ПИФ!A1</f>
@@ -5726,7 +5769,7 @@
         <v>БАНК ГПБ (АО)</v>
       </c>
       <c r="C2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E2" t="str">
         <f>ПИФ!$A$2</f>
@@ -5742,7 +5785,7 @@
         <v>БАНК ГПБ (АО)</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" t="str">
         <f>ПИФ!$A$3</f>
@@ -5758,7 +5801,7 @@
         <v>ООО КБ "ГТ БАНК"</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E4" t="str">
         <f>ПИФ!$A$3</f>
@@ -5774,7 +5817,7 @@
         <v>БАНК ГПБ (АО)</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E5" t="str">
         <f>ПИФ!$A$4</f>
@@ -5790,7 +5833,7 @@
         <v>БАНК ГПБ (АО)</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E6" t="str">
         <f>ПИФ!$A$5</f>
@@ -5799,41 +5842,41 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E8" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C8">
-    <cfRule type="duplicateValues" dxfId="63" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E8">
-    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="61" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5841,10 +5884,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5860,10 +5903,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>ПИФ!A1</f>
@@ -5872,13 +5915,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="B2" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="D2" t="str">
         <f>ПИФ!$A$2</f>
@@ -5887,13 +5930,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="B3" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="D3" t="str">
         <f>ПИФ!A7</f>
@@ -5902,49 +5945,64 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="B4" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="D4" t="str">
         <f>ПИФ!$A$5</f>
         <v>ЗПИФ_Азов</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1 C5:D8 C4">
-    <cfRule type="duplicateValues" dxfId="60" priority="15"/>
+  <conditionalFormatting sqref="C1:D1 C5:D8 C2:C4">
+    <cfRule type="duplicateValues" dxfId="56" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B4:B8">
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1 A5:D1048576 A4:C4">
-    <cfRule type="duplicateValues" dxfId="58" priority="20"/>
+  <conditionalFormatting sqref="A1:D1 A5:D1048576 A4:C4 A2:A5 C2:C4">
+    <cfRule type="duplicateValues" dxfId="54" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="duplicateValues" dxfId="56" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5955,7 +6013,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5969,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5977,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5990,10 +6048,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="B4" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -6020,7 +6078,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6028,7 +6086,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6057,7 +6115,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6085,7 +6143,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7058,194 +7116,194 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B123" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B124" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B125" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B126" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B128" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B129" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B130" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B131" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B132" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B133" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B134" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B135" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B136" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B137" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B138" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B139" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B140" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B141" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B142" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B143" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B144" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B145" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B126 A128:B1048576 A127">
-    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7258,7 +7316,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7691,10 +7749,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Шаблоны/Идентификаторы.xlsx
+++ b/Шаблоны/Идентификаторы.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Отчетность_\Конвертер\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6100778-8F06-4287-8BCA-BB2EBE13C4DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" tabRatio="839" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="9660" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="УК АИФ ПИФ" sheetId="26" r:id="rId1"/>
@@ -35,20 +41,104 @@
     <sheet name="Требов.к кредитн.организации " sheetId="19" r:id="rId26"/>
     <sheet name="Худож.ценности" sheetId="20" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="БАНК">Кредит.организация!$B$2:$B$9</definedName>
+    <definedName name="ПИФ">ПИФ!$A$2:$A$12</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Андрей</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3C4B947A-1F73-4286-9ABE-FBFD9C620AF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Андрей:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>ВНИМАНИЕ!</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+В файле-Аванкор обязательно в "</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Примечание</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">" указать номер счета!
+Раздел:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>1.2. Денежные средства на счетах по депозиту в кредитных организациях</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="761">
   <si>
     <t>Идентификатор Кредитной организации</t>
   </si>
@@ -2054,9 +2144,6 @@
     <t>ЗПИФ_ЦентрДев</t>
   </si>
   <si>
-    <t>ЗПИФ_Восток Капитал</t>
-  </si>
-  <si>
     <t>РПИ-Договор процентного займа РПИ-6</t>
   </si>
   <si>
@@ -2114,15 +2201,6 @@
     <t>Без обеспечения</t>
   </si>
   <si>
-    <t>РПИ-СД-03/20</t>
-  </si>
-  <si>
-    <t>РПИ-СР-03/20</t>
-  </si>
-  <si>
-    <t>РПИ-УК-03/20</t>
-  </si>
-  <si>
     <t>ИП Балковская Д.Г.</t>
   </si>
   <si>
@@ -2183,12 +2261,6 @@
     <t>Азов-ДА-А-11/1-03/20</t>
   </si>
   <si>
-    <t>Азов-УК-03/20</t>
-  </si>
-  <si>
-    <t>03/20</t>
-  </si>
-  <si>
     <t>Азов-НДС_I кв/2020</t>
   </si>
   <si>
@@ -2198,30 +2270,15 @@
     <t>Азов-Налог на имущество_I кв/20</t>
   </si>
   <si>
-    <t>42002810600070000194</t>
-  </si>
-  <si>
     <t>Чернышова Ольга Петровна</t>
   </si>
   <si>
     <t>Чернышова О.П.</t>
   </si>
   <si>
-    <t>42002810900070000195</t>
-  </si>
-  <si>
-    <t>РПИ -Договор_РПИ-5-04/20</t>
-  </si>
-  <si>
-    <t>РПИ -Договор_РПИ-5-04/20п</t>
-  </si>
-  <si>
     <t>Азов-ДА-А-11/1-04/20</t>
   </si>
   <si>
-    <t>Азов-УК-04/20</t>
-  </si>
-  <si>
     <t>04/20</t>
   </si>
   <si>
@@ -2267,20 +2324,113 @@
     <t>Кубань-СД-04/20</t>
   </si>
   <si>
-    <t>Кубань-СР-04/20</t>
-  </si>
-  <si>
-    <t>Кубань-УК-04/20</t>
-  </si>
-  <si>
     <t>Общество с ограниченной ответственностью "Регистратор "ДонФАО"</t>
+  </si>
+  <si>
+    <t>Восток Капитал -Договор процентного займа ВК-5</t>
+  </si>
+  <si>
+    <t>ВК-5</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>Кубань-СД-05/20</t>
+  </si>
+  <si>
+    <t>05/20</t>
+  </si>
+  <si>
+    <t>Кубань-СР-05/20</t>
+  </si>
+  <si>
+    <t>Кубань-УК-05/20</t>
+  </si>
+  <si>
+    <t>Восток Капитал - СД-05/20</t>
+  </si>
+  <si>
+    <t>Восток Капитал - СР-05/20</t>
+  </si>
+  <si>
+    <t>Договор №290/Д-СР от 12.08.2019 г.</t>
+  </si>
+  <si>
+    <t>Восток Капитал -УК-05/20</t>
+  </si>
+  <si>
+    <t>Правила доверительного управления №3973-СД от 18.02.2020г.</t>
+  </si>
+  <si>
+    <t>РПИ-СД-05/20</t>
+  </si>
+  <si>
+    <t>РПИ-СР-05/20</t>
+  </si>
+  <si>
+    <t>РПИ-УК-05/20</t>
+  </si>
+  <si>
+    <t>ООО "АСВ Технологии"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "АСВ Технологии"</t>
+  </si>
+  <si>
+    <t>ЗПИФ_ВостокКапитал</t>
+  </si>
+  <si>
+    <t>40701810500000001983</t>
+  </si>
+  <si>
+    <t>42002810900070000221</t>
+  </si>
+  <si>
+    <t>РПИ -Договор_РПИ-5-05/20</t>
+  </si>
+  <si>
+    <t>РПИ -Договор_РПИ-5-05/20п</t>
+  </si>
+  <si>
+    <t>61:46:00111102:394</t>
+  </si>
+  <si>
+    <t>Здание_394</t>
+  </si>
+  <si>
+    <t>61:46:0011102:794</t>
+  </si>
+  <si>
+    <t>Земля_794</t>
+  </si>
+  <si>
+    <t>Кузанова А.В.</t>
+  </si>
+  <si>
+    <t>Кузанова Анна Викторовна</t>
+  </si>
+  <si>
+    <t>Азов-ДКП-А-54</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи объектов недвижимости № А-54 от 06.05.2020 г.</t>
+  </si>
+  <si>
+    <t>Азов-УК-05/20</t>
+  </si>
+  <si>
+    <t>Азов-ДА-А-11/1-05/20</t>
+  </si>
+  <si>
+    <t>00000000000000000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2299,6 +2449,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -2356,7 +2535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2420,46 +2599,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <fill>
         <patternFill>
@@ -3191,21 +3341,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>469</v>
       </c>
@@ -3216,7 +3366,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>464</v>
       </c>
@@ -3233,20 +3383,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>374</v>
       </c>
@@ -3254,7 +3404,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>545</v>
       </c>
@@ -3262,7 +3412,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>544</v>
       </c>
@@ -3270,7 +3420,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>546</v>
       </c>
@@ -3278,7 +3428,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>378</v>
       </c>
@@ -3286,7 +3436,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>627</v>
       </c>
@@ -3294,7 +3444,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>381</v>
       </c>
@@ -3302,7 +3452,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>383</v>
       </c>
@@ -3310,7 +3460,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>385</v>
       </c>
@@ -3318,7 +3468,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>387</v>
       </c>
@@ -3326,7 +3476,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>389</v>
       </c>
@@ -3334,7 +3484,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>391</v>
       </c>
@@ -3342,7 +3492,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>393</v>
       </c>
@@ -3350,7 +3500,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>547</v>
       </c>
@@ -3358,7 +3508,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>548</v>
       </c>
@@ -3366,7 +3516,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -3374,7 +3524,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>549</v>
       </c>
@@ -3382,7 +3532,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>550</v>
       </c>
@@ -3390,7 +3540,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>528</v>
       </c>
@@ -3398,7 +3548,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>529</v>
       </c>
@@ -3406,7 +3556,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -3414,46 +3564,54 @@
         <v>532</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B22" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B23" t="s">
-        <v>716</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>754</v>
+      </c>
+      <c r="B24" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="53.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>401</v>
       </c>
@@ -3477,7 +3635,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>402</v>
       </c>
@@ -3489,7 +3647,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>404</v>
       </c>
@@ -3501,7 +3659,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>406</v>
       </c>
@@ -3513,7 +3671,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>628</v>
       </c>
@@ -3522,22 +3680,22 @@
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>535</v>
       </c>
@@ -3549,7 +3707,7 @@
       </c>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>536</v>
       </c>
@@ -3561,7 +3719,7 @@
       </c>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>537</v>
       </c>
@@ -3573,7 +3731,7 @@
       </c>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>538</v>
       </c>
@@ -3585,7 +3743,7 @@
       </c>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>539</v>
       </c>
@@ -3597,7 +3755,7 @@
       </c>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>540</v>
       </c>
@@ -3609,7 +3767,7 @@
       </c>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>541</v>
       </c>
@@ -3621,9 +3779,9 @@
       </c>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>566</v>
@@ -3639,7 +3797,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="26"/>
@@ -3651,7 +3809,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="26"/>
@@ -3663,9 +3821,9 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>640</v>
@@ -3681,7 +3839,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="26"/>
@@ -3693,7 +3851,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="26"/>
@@ -3705,317 +3863,325 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="C21" s="26" t="s">
         <v>684</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -4023,58 +4189,61 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B10">
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C1048576 A1:C16">
-    <cfRule type="duplicateValues" dxfId="35" priority="11"/>
+  <conditionalFormatting sqref="A24:C1048576 A1:C16 A23:B23">
+    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="34" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C19 A17:B17">
-    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>414</v>
       </c>
@@ -4085,7 +4254,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>551</v>
       </c>
@@ -4093,7 +4262,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>416</v>
       </c>
@@ -4101,7 +4270,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>552</v>
       </c>
@@ -4112,7 +4281,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>419</v>
       </c>
@@ -4120,7 +4289,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>553</v>
       </c>
@@ -4131,7 +4300,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>422</v>
       </c>
@@ -4139,7 +4308,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>554</v>
       </c>
@@ -4150,7 +4319,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>425</v>
       </c>
@@ -4158,7 +4327,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>427</v>
       </c>
@@ -4166,7 +4335,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>429</v>
       </c>
@@ -4176,30 +4345,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>444</v>
       </c>
@@ -4207,7 +4377,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -4215,7 +4385,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>636</v>
       </c>
@@ -4223,7 +4393,7 @@
         <v>6163069169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>571</v>
       </c>
@@ -4231,15 +4401,15 @@
         <v>638</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B5" s="2">
         <v>7701983954</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>646</v>
       </c>
@@ -4247,9 +4417,9 @@
         <v>6152001137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="B7" s="2">
         <v>2309136240</v>
@@ -4257,30 +4427,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1"/>
-    <col min="2" max="2" width="92.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>431</v>
       </c>
@@ -4288,7 +4458,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>432</v>
       </c>
@@ -4296,7 +4466,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>434</v>
       </c>
@@ -4304,7 +4474,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>436</v>
       </c>
@@ -4313,7 +4483,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>543</v>
       </c>
@@ -4322,7 +4492,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>542</v>
       </c>
@@ -4331,150 +4501,159 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B7" t="s">
         <v>523</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B8" t="s">
         <v>523</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>439</v>
-      </c>
-      <c r="B9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>440</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B11" t="s">
         <v>440</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B12" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>637</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B14" s="22" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>675</v>
+      </c>
+      <c r="B15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>671</v>
+      </c>
+      <c r="B16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>748</v>
+      </c>
+      <c r="B17" t="s">
         <v>676</v>
       </c>
-      <c r="B14" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>672</v>
-      </c>
-      <c r="B15" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>719</v>
-      </c>
-      <c r="B16" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>720</v>
-      </c>
-      <c r="B17" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>702</v>
+        <v>749</v>
       </c>
       <c r="B18" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="B19" t="s">
-        <v>732</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>722</v>
+      </c>
+      <c r="B20" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13 B2:B10">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+  <conditionalFormatting sqref="B14 B2:B11">
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A1048576 A1:A15">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+  <conditionalFormatting sqref="A20:A1048576 A1:A16">
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A18">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+  <conditionalFormatting sqref="A17:A19">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B19">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+  <conditionalFormatting sqref="B17:B20">
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>463</v>
       </c>
@@ -4482,7 +4661,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>465</v>
       </c>
@@ -4490,7 +4669,7 @@
         <v>7708213619</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>466</v>
       </c>
@@ -4498,7 +4677,7 @@
         <v>2310122059</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>464</v>
       </c>
@@ -4506,7 +4685,7 @@
         <v>6164111800</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -4514,7 +4693,7 @@
         <v>7710198911</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>468</v>
       </c>
@@ -4522,7 +4701,7 @@
         <v>6163020692</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>647</v>
       </c>
@@ -4530,7 +4709,7 @@
         <v>6141019936</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>646</v>
       </c>
@@ -4538,7 +4717,7 @@
         <v>6152001137</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>650</v>
       </c>
@@ -4546,7 +4725,7 @@
         <v>7705380065</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>660</v>
       </c>
@@ -4554,25 +4733,25 @@
         <v>2311024047</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B11">
         <v>7701983954</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B12">
         <v>6102040980</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B13">
         <v>2632805194</v>
@@ -4580,13 +4759,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4594,21 +4773,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="72.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>447</v>
       </c>
@@ -4619,7 +4798,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>524</v>
       </c>
@@ -4627,78 +4806,76 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="B3" t="s">
         <v>462</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="B5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B6" t="s">
         <v>526</v>
       </c>
-      <c r="C6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B8" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="B9" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>451</v>
       </c>
@@ -4706,7 +4883,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>448</v>
       </c>
@@ -4714,7 +4891,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>453</v>
       </c>
@@ -4723,7 +4900,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>461</v>
       </c>
@@ -4732,7 +4909,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>651</v>
       </c>
@@ -4741,7 +4918,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>459</v>
       </c>
@@ -4750,7 +4927,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>499</v>
       </c>
@@ -4759,7 +4936,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>457</v>
       </c>
@@ -4768,7 +4945,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>500</v>
       </c>
@@ -4777,16 +4954,16 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B19" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>578</v>
       </c>
@@ -4797,7 +4974,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>580</v>
       </c>
@@ -4808,9 +4985,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>687</v>
+        <v>740</v>
       </c>
       <c r="B22" t="s">
         <v>503</v>
@@ -4819,9 +4996,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>688</v>
+        <v>741</v>
       </c>
       <c r="B23" t="s">
         <v>503</v>
@@ -4830,25 +5007,25 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>689</v>
+        <v>742</v>
       </c>
       <c r="B24" t="s">
         <v>450</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B25" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>653</v>
       </c>
@@ -4859,7 +5036,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>656</v>
       </c>
@@ -4870,7 +5047,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>659</v>
       </c>
@@ -4881,7 +5058,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>661</v>
       </c>
@@ -4892,7 +5069,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>663</v>
       </c>
@@ -4903,94 +5080,134 @@
         <v>664</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>673</v>
+      </c>
+      <c r="B31" t="s">
         <v>674</v>
       </c>
-      <c r="B31" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="B32" t="s">
-        <v>679</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B33" t="s">
-        <v>681</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B34" t="s">
         <v>680</v>
       </c>
       <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>734</v>
+      </c>
+      <c r="B35" t="s">
+        <v>679</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>735</v>
+      </c>
+      <c r="B36" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>736</v>
+      </c>
+      <c r="B37" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>738</v>
+      </c>
+      <c r="B38" t="s">
+        <v>739</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:C17">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="B35:B1048576 B21:B31 B2:B19">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+  <conditionalFormatting sqref="B36:B1048576 B21:B31 B2:B19">
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C1048576 C2:C31">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  <conditionalFormatting sqref="C36:C1048576 C2:C31">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A1048576 A21:A31 A1:A19">
+  <conditionalFormatting sqref="A21:A31 A1:A19 A36:A37 A39:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="A20">
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
+  <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="B32:B35">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B34">
+  <conditionalFormatting sqref="C32:C35">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C34">
+  <conditionalFormatting sqref="A32:A35">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -4998,7 +5215,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -5015,20 +5232,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="72.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>409</v>
       </c>
@@ -5052,7 +5269,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>571</v>
       </c>
@@ -5076,7 +5293,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>572</v>
       </c>
@@ -5100,7 +5317,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>630</v>
       </c>
@@ -5108,12 +5325,20 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>740</v>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B6" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -5131,16 +5356,19 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5164,20 +5392,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>556</v>
       </c>
@@ -5185,7 +5413,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>555</v>
       </c>
@@ -5193,7 +5421,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>558</v>
       </c>
@@ -5201,7 +5429,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>560</v>
       </c>
@@ -5209,7 +5437,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>562</v>
       </c>
@@ -5217,7 +5445,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>564</v>
       </c>
@@ -5225,7 +5453,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>577</v>
       </c>
@@ -5239,16 +5467,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5272,16 +5500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5305,16 +5533,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -5338,16 +5566,16 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -5371,16 +5599,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>410</v>
       </c>
@@ -5404,16 +5632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>411</v>
       </c>
@@ -5437,16 +5665,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>412</v>
       </c>
@@ -5470,16 +5698,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>413</v>
       </c>
@@ -5503,24 +5731,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -5540,14 +5768,14 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="30">
         <v>3216</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="29">
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -5560,14 +5788,14 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="30">
         <v>3426</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="29">
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -5580,14 +5808,14 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="30">
         <v>3379</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="29">
         <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -5600,14 +5828,14 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="30">
         <v>3402</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="29">
         <v>6</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -5620,14 +5848,14 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="30">
         <v>3736</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="29">
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -5640,14 +5868,14 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="30">
         <v>3839</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="29">
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -5660,14 +5888,14 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="30" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" s="29">
         <v>6</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -5680,14 +5908,14 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="B9" s="10">
+        <v>745</v>
+      </c>
+      <c r="B9" s="30">
         <v>3973</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="29">
         <v>6</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -5702,47 +5930,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C6 A10:C1048576 C7">
-    <cfRule type="duplicateValues" dxfId="66" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F1">
-    <cfRule type="duplicateValues" dxfId="65" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="64" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="63" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8 C9">
-    <cfRule type="duplicateValues" dxfId="62" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="61" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5760,7 +5988,7 @@
         <v>Идентификатор паевого инвестиционного фонда</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5771,12 +5999,11 @@
       <c r="C2" t="s">
         <v>502</v>
       </c>
-      <c r="E2" t="str">
-        <f>ПИФ!$A$2</f>
-        <v>ЗПИФ_РПИ</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5787,28 +6014,25 @@
       <c r="C3" t="s">
         <v>502</v>
       </c>
-      <c r="E3" t="str">
-        <f>ПИФ!$A$3</f>
-        <v>ЗПИФ_АРС Капитал</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="str">
-        <f>Кредит.организация!$B$3</f>
-        <v>ООО КБ "ГТ БАНК"</v>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>502</v>
       </c>
-      <c r="E4" t="str">
-        <f>ПИФ!$A$3</f>
-        <v>ЗПИФ_АРС Капитал</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5819,12 +6043,11 @@
       <c r="C5" t="s">
         <v>502</v>
       </c>
-      <c r="E5" t="str">
-        <f>ПИФ!$A$4</f>
-        <v>ЗПИФ_Дон</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5835,17 +6058,17 @@
       <c r="C6" t="s">
         <v>502</v>
       </c>
-      <c r="E6" t="str">
-        <f>ПИФ!$A$5</f>
-        <v>ЗПИФ_Азов</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B7" t="s">
-        <v>476</v>
+        <v>672</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Кредит.организация!$B$2</f>
+        <v>БАНК ГПБ (АО)</v>
       </c>
       <c r="C7" t="s">
         <v>502</v>
@@ -5854,12 +6077,13 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="B8" t="s">
-        <v>476</v>
+        <v>677</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Кредит.организация!$B$2</f>
+        <v>БАНК ГПБ (АО)</v>
       </c>
       <c r="C8" t="s">
         <v>502</v>
@@ -5868,37 +6092,60 @@
         <v>665</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Кредит.организация!$B$2</f>
+        <v>БАНК ГПБ (АО)</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E9" t="s">
+        <v>745</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C8">
-    <cfRule type="duplicateValues" dxfId="59" priority="15"/>
+  <conditionalFormatting sqref="C1:C9">
+    <cfRule type="duplicateValues" dxfId="54" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E8">
-    <cfRule type="duplicateValues" dxfId="58" priority="17"/>
+  <conditionalFormatting sqref="D1:E9">
+    <cfRule type="duplicateValues" dxfId="53" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="57" priority="19"/>
+  <conditionalFormatting sqref="B1:B9">
+    <cfRule type="duplicateValues" dxfId="52" priority="19"/>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{43C1DEEB-55AC-4E54-9128-F5EDF787539C}">
+      <formula1>ПИФ</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{47DF9AEA-3927-459D-905E-971FB7ED2202}">
+      <formula1>БАНК</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -5913,116 +6160,136 @@
         <v>Идентификатор паевого инвестиционного фонда</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="B2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D2" t="str">
-        <f>ПИФ!$A$2</f>
-        <v>ЗПИФ_РПИ</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>A2</f>
+        <v>42002810900070000221</v>
+      </c>
+      <c r="D2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="B3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D3" t="str">
-        <f>ПИФ!A7</f>
-        <v>ЗПИФ_Кубань</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C4" si="0">A3</f>
+        <v>00000000000000000000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B4" t="s">
-        <v>707</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="D4" t="str">
-        <f>ПИФ!$A$5</f>
-        <v>ЗПИФ_Азов</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>42002810400070000187</v>
+      </c>
+      <c r="D4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1 C5:D8 C2:C4">
-    <cfRule type="duplicateValues" dxfId="56" priority="21"/>
+  <conditionalFormatting sqref="B1 B5:B8">
+    <cfRule type="duplicateValues" dxfId="51" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B4:B8">
-    <cfRule type="duplicateValues" dxfId="55" priority="20"/>
+  <conditionalFormatting sqref="A1:B1 A5:B1048576 A2:A4">
+    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1 A5:D1048576 A4:C4 A2:A5 C2:C4">
-    <cfRule type="duplicateValues" dxfId="54" priority="26"/>
+  <conditionalFormatting sqref="C2:C40">
+    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="duplicateValues" dxfId="53" priority="17"/>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="52" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="51" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="47" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
-  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{75675359-53BE-4655-96BF-E324FFEA8436}">
+      <formula1>БАНК</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{83D0023E-2E24-4B06-8F7B-B8EE267EB5E1}">
+      <formula1>ПИФ</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6030,7 +6297,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6038,7 +6305,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6046,12 +6313,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -6060,20 +6327,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -6081,7 +6348,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6089,7 +6356,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6097,7 +6364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6105,7 +6372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -6115,30 +6382,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="L153" sqref="L153"/>
+      <selection pane="bottomRight" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -6146,7 +6413,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -6154,7 +6421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -6162,7 +6429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6170,7 +6437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6178,7 +6445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -6186,7 +6453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6194,7 +6461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -6202,7 +6469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -6210,7 +6477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -6218,7 +6485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -6226,7 +6493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6234,7 +6501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -6242,7 +6509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -6250,7 +6517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -6258,7 +6525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -6266,7 +6533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -6274,7 +6541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -6282,7 +6549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -6290,7 +6557,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -6298,7 +6565,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -6306,7 +6573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -6314,7 +6581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -6322,7 +6589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -6330,7 +6597,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -6338,7 +6605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -6346,7 +6613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6354,7 +6621,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -6362,7 +6629,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -6370,7 +6637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -6378,7 +6645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -6386,7 +6653,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -6394,7 +6661,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -6402,7 +6669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -6410,7 +6677,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -6418,7 +6685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -6426,7 +6693,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -6434,7 +6701,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -6442,7 +6709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -6450,7 +6717,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -6458,7 +6725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -6466,7 +6733,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -6474,7 +6741,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -6482,7 +6749,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -6490,7 +6757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6498,7 +6765,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -6506,7 +6773,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -6514,7 +6781,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -6522,7 +6789,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -6530,7 +6797,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -6538,7 +6805,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -6546,7 +6813,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -6554,7 +6821,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -6562,7 +6829,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -6570,7 +6837,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -6578,7 +6845,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>135</v>
       </c>
@@ -6586,7 +6853,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -6594,7 +6861,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -6602,7 +6869,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -6610,7 +6877,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -6618,7 +6885,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>145</v>
       </c>
@@ -6626,7 +6893,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -6634,7 +6901,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -6642,7 +6909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -6650,7 +6917,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -6658,7 +6925,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -6666,7 +6933,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>157</v>
       </c>
@@ -6674,7 +6941,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -6682,7 +6949,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -6690,7 +6957,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -6698,7 +6965,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -6706,7 +6973,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>167</v>
       </c>
@@ -6714,7 +6981,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -6722,7 +6989,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -6730,7 +6997,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -6738,7 +7005,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -6746,7 +7013,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>177</v>
       </c>
@@ -6754,7 +7021,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -6762,7 +7029,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -6770,7 +7037,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>183</v>
       </c>
@@ -6778,7 +7045,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -6786,7 +7053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -6794,7 +7061,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>189</v>
       </c>
@@ -6802,7 +7069,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>191</v>
       </c>
@@ -6810,7 +7077,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -6818,7 +7085,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>195</v>
       </c>
@@ -6826,7 +7093,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -6834,7 +7101,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>199</v>
       </c>
@@ -6842,7 +7109,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -6850,7 +7117,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>203</v>
       </c>
@@ -6858,7 +7125,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -6866,7 +7133,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>207</v>
       </c>
@@ -6874,7 +7141,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -6882,7 +7149,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -6890,7 +7157,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>213</v>
       </c>
@@ -6898,7 +7165,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>215</v>
       </c>
@@ -6906,7 +7173,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>217</v>
       </c>
@@ -6914,7 +7181,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>219</v>
       </c>
@@ -6922,7 +7189,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>221</v>
       </c>
@@ -6930,7 +7197,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -6938,7 +7205,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>225</v>
       </c>
@@ -6946,7 +7213,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -6954,7 +7221,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>229</v>
       </c>
@@ -6962,7 +7229,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>231</v>
       </c>
@@ -6970,7 +7237,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -6978,7 +7245,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>235</v>
       </c>
@@ -6986,7 +7253,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>237</v>
       </c>
@@ -6994,7 +7261,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>239</v>
       </c>
@@ -7002,7 +7269,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>241</v>
       </c>
@@ -7010,7 +7277,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>243</v>
       </c>
@@ -7018,7 +7285,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>245</v>
       </c>
@@ -7026,7 +7293,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>247</v>
       </c>
@@ -7034,7 +7301,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>249</v>
       </c>
@@ -7042,7 +7309,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>251</v>
       </c>
@@ -7050,7 +7317,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>253</v>
       </c>
@@ -7058,7 +7325,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>255</v>
       </c>
@@ -7066,7 +7333,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>257</v>
       </c>
@@ -7074,7 +7341,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>259</v>
       </c>
@@ -7082,7 +7349,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>261</v>
       </c>
@@ -7090,7 +7357,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>263</v>
       </c>
@@ -7098,7 +7365,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>265</v>
       </c>
@@ -7106,7 +7373,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>267</v>
       </c>
@@ -7114,196 +7381,212 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>751</v>
+      </c>
+      <c r="B123" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>753</v>
+      </c>
+      <c r="B124" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>581</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B125" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>584</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>586</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>588</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B128" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>590</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B129" s="21" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>592</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>594</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>596</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>598</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B133" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>600</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>602</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>603</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>606</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>608</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B138" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>610</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B139" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>612</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B140" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>614</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B141" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>616</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B142" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>618</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B143" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>620</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B144" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>622</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B145" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>624</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B146" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>626</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B147" t="s">
         <v>625</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B126 A128:B1048576 A127">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+  <conditionalFormatting sqref="A130:B1048576 A129 A1:B128">
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7311,27 +7594,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -7339,7 +7622,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -7347,7 +7630,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -7355,7 +7638,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -7363,7 +7646,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -7371,7 +7654,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -7379,7 +7662,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -7387,7 +7670,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -7395,7 +7678,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -7403,7 +7686,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>288</v>
       </c>
@@ -7411,7 +7694,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>290</v>
       </c>
@@ -7419,7 +7702,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -7427,7 +7710,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>294</v>
       </c>
@@ -7435,7 +7718,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -7443,7 +7726,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>298</v>
       </c>
@@ -7451,7 +7734,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>300</v>
       </c>
@@ -7459,7 +7742,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>302</v>
       </c>
@@ -7467,7 +7750,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>304</v>
       </c>
@@ -7475,7 +7758,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>306</v>
       </c>
@@ -7483,7 +7766,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>308</v>
       </c>
@@ -7491,7 +7774,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -7499,7 +7782,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -7507,7 +7790,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -7515,7 +7798,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>316</v>
       </c>
@@ -7523,7 +7806,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>318</v>
       </c>
@@ -7531,7 +7814,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>320</v>
       </c>
@@ -7539,7 +7822,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>322</v>
       </c>
@@ -7547,7 +7830,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>324</v>
       </c>
@@ -7555,7 +7838,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>326</v>
       </c>
@@ -7563,7 +7846,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>328</v>
       </c>
@@ -7571,7 +7854,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>330</v>
       </c>
@@ -7579,7 +7862,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>332</v>
       </c>
@@ -7587,7 +7870,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>334</v>
       </c>
@@ -7595,7 +7878,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>336</v>
       </c>
@@ -7603,7 +7886,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>338</v>
       </c>
@@ -7611,7 +7894,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>340</v>
       </c>
@@ -7619,7 +7902,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>342</v>
       </c>
@@ -7627,7 +7910,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>344</v>
       </c>
@@ -7635,7 +7918,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>346</v>
       </c>
@@ -7643,7 +7926,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>348</v>
       </c>
@@ -7651,7 +7934,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>350</v>
       </c>
@@ -7659,7 +7942,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>352</v>
       </c>
@@ -7667,7 +7950,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>354</v>
       </c>
@@ -7675,7 +7958,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>356</v>
       </c>
@@ -7683,7 +7966,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>358</v>
       </c>
@@ -7691,7 +7974,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>360</v>
       </c>
@@ -7699,7 +7982,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>362</v>
       </c>
@@ -7707,7 +7990,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>364</v>
       </c>
@@ -7715,7 +7998,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>366</v>
       </c>
@@ -7723,7 +8006,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -7731,7 +8014,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>370</v>
       </c>
@@ -7739,7 +8022,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>372</v>
       </c>
@@ -7749,10 +8032,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Шаблоны/Идентификаторы.xlsx
+++ b/Шаблоны/Идентификаторы.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Отчетность_\Конвертер\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сотрудник\YandexDisk-tovanchov\Git\XBRL_SCHA_Prirost\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6100778-8F06-4287-8BCA-BB2EBE13C4DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11A0AA-2579-444B-9182-3E6B9699B74D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="9660" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="9660" tabRatio="839" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="УК АИФ ПИФ" sheetId="26" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <author>Андрей</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3C4B947A-1F73-4286-9ABE-FBFD9C620AF7}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Андрей:</t>
         </r>
@@ -72,7 +73,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -93,7 +95,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 В файле-Аванкор обязательно в "</t>
@@ -114,7 +117,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">" указать номер счета!
 Раздел:
@@ -138,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="770">
   <si>
     <t>Идентификатор Кредитной организации</t>
   </si>
@@ -2186,9 +2190,6 @@
     <t>Договор №290/Д-СР от 12.08.2019 г</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Кубань-Договор процентного займа К-8</t>
   </si>
   <si>
@@ -2348,82 +2349,112 @@
     <t>Кубань-УК-05/20</t>
   </si>
   <si>
+    <t>Правила доверительного управления №3973-СД от 18.02.2020г.</t>
+  </si>
+  <si>
+    <t>ООО "АСВ Технологии"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "АСВ Технологии"</t>
+  </si>
+  <si>
+    <t>ЗПИФ_ВостокКапитал</t>
+  </si>
+  <si>
+    <t>40701810500000001983</t>
+  </si>
+  <si>
+    <t>61:46:00111102:394</t>
+  </si>
+  <si>
+    <t>Здание_394</t>
+  </si>
+  <si>
+    <t>61:46:0011102:794</t>
+  </si>
+  <si>
+    <t>Земля_794</t>
+  </si>
+  <si>
+    <t>Кузанова А.В.</t>
+  </si>
+  <si>
+    <t>Кузанова Анна Викторовна</t>
+  </si>
+  <si>
+    <t>Азов-ДКП-А-54</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи объектов недвижимости № А-54 от 06.05.2020 г.</t>
+  </si>
+  <si>
+    <t>Азов-УК-05/20</t>
+  </si>
+  <si>
+    <t>Азов-ДА-А-11/1-05/20</t>
+  </si>
+  <si>
+    <t>00000000000000000000</t>
+  </si>
+  <si>
+    <t>РПИ-Договор процентного займа РПИ-10</t>
+  </si>
+  <si>
+    <t>РПИ-10</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>РПИ -Договор_РПИ-5-06/20</t>
+  </si>
+  <si>
+    <t>РПИ -Договор_РПИ-5-06/20п</t>
+  </si>
+  <si>
+    <t>РПИ-СД-06/20</t>
+  </si>
+  <si>
+    <t>РПИ-СР-06/20</t>
+  </si>
+  <si>
+    <t>РПИ-УК-06/20</t>
+  </si>
+  <si>
+    <t>ВК-6</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>Восток Капитал - СД-06/20</t>
+  </si>
+  <si>
+    <t>Восток Капитал - СР-06/20</t>
+  </si>
+  <si>
+    <t>Восток Капитал -УК-06/20</t>
+  </si>
+  <si>
+    <t>Восток Капитал -Договор процентного займа ВК-6</t>
+  </si>
+  <si>
     <t>Восток Капитал - СД-05/20</t>
   </si>
   <si>
-    <t>Восток Капитал - СР-05/20</t>
-  </si>
-  <si>
-    <t>Договор №290/Д-СР от 12.08.2019 г.</t>
-  </si>
-  <si>
-    <t>Восток Капитал -УК-05/20</t>
-  </si>
-  <si>
-    <t>Правила доверительного управления №3973-СД от 18.02.2020г.</t>
-  </si>
-  <si>
-    <t>РПИ-СД-05/20</t>
-  </si>
-  <si>
-    <t>РПИ-СР-05/20</t>
-  </si>
-  <si>
-    <t>РПИ-УК-05/20</t>
-  </si>
-  <si>
-    <t>ООО "АСВ Технологии"</t>
-  </si>
-  <si>
-    <t>Общество с ограниченной ответственностью "АСВ Технологии"</t>
-  </si>
-  <si>
-    <t>ЗПИФ_ВостокКапитал</t>
-  </si>
-  <si>
-    <t>40701810500000001983</t>
-  </si>
-  <si>
-    <t>42002810900070000221</t>
-  </si>
-  <si>
-    <t>РПИ -Договор_РПИ-5-05/20</t>
-  </si>
-  <si>
-    <t>РПИ -Договор_РПИ-5-05/20п</t>
-  </si>
-  <si>
-    <t>61:46:00111102:394</t>
-  </si>
-  <si>
-    <t>Здание_394</t>
-  </si>
-  <si>
-    <t>61:46:0011102:794</t>
-  </si>
-  <si>
-    <t>Земля_794</t>
-  </si>
-  <si>
-    <t>Кузанова А.В.</t>
-  </si>
-  <si>
-    <t>Кузанова Анна Викторовна</t>
-  </si>
-  <si>
-    <t>Азов-ДКП-А-54</t>
-  </si>
-  <si>
-    <t>Договор купли-продажи объектов недвижимости № А-54 от 06.05.2020 г.</t>
-  </si>
-  <si>
-    <t>Азов-УК-05/20</t>
-  </si>
-  <si>
-    <t>Азов-ДА-А-11/1-05/20</t>
-  </si>
-  <si>
-    <t>00000000000000000000</t>
+    <t>06/20</t>
+  </si>
+  <si>
+    <t>Договор №290/Ж-СД от 29.01.2020 г.</t>
+  </si>
+  <si>
+    <t>Договор №290/Ж-СР от 29.01.2020 г.</t>
+  </si>
+  <si>
+    <t>Осн долг</t>
+  </si>
+  <si>
+    <t>Проценты</t>
   </si>
 </sst>
 </file>
@@ -2456,14 +2487,16 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -2609,7 +2642,70 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3344,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,7 +3483,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,31 +3662,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>685</v>
+      </c>
+      <c r="B22" t="s">
         <v>686</v>
-      </c>
-      <c r="B22" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B24" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3598,10 +3694,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,19 +3776,19 @@
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>688</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>689</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3865,16 +3961,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="C20" s="26" t="s">
         <v>695</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>696</v>
-      </c>
       <c r="D20" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -3883,57 +3979,77 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>682</v>
+        <v>750</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>683</v>
+        <v>751</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>685</v>
-      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="C23" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>725</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="D23" s="28" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>728</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="C24" s="26" t="s">
         <v>729</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>730</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="D24" s="28" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
@@ -4187,42 +4303,60 @@
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B10">
-    <cfRule type="duplicateValues" dxfId="38" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C1048576 A1:C16 A23:B23">
-    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
+  <conditionalFormatting sqref="A26:C1048576 A1:C16 A24:B24">
+    <cfRule type="duplicateValues" dxfId="46" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="36" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C19 A17:B17">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="34" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="duplicateValues" dxfId="42" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="duplicateValues" dxfId="41" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
+    <cfRule type="duplicateValues" dxfId="40" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
-    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
+  <conditionalFormatting sqref="A25:B25">
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4345,10 +4479,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4359,8 +4493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4419,7 +4553,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B7" s="2">
         <v>2309136240</v>
@@ -4427,10 +4561,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4440,14 +4574,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4457,6 +4592,9 @@
       <c r="B1" s="7" t="s">
         <v>495</v>
       </c>
+      <c r="C1" s="7" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4481,7 +4619,6 @@
       <c r="B4" t="s">
         <v>437</v>
       </c>
-      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -4490,7 +4627,6 @@
       <c r="B5" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4499,34 +4635,30 @@
       <c r="B6" t="s">
         <v>522</v>
       </c>
-      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B7" t="s">
         <v>523</v>
       </c>
-      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B8" t="s">
         <v>523</v>
       </c>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
         <v>523</v>
       </c>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4535,7 +4667,6 @@
       <c r="B10" t="s">
         <v>440</v>
       </c>
-      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4544,7 +4675,6 @@
       <c r="B11" t="s">
         <v>440</v>
       </c>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4553,7 +4683,6 @@
       <c r="B12" t="s">
         <v>440</v>
       </c>
-      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4587,53 +4716,65 @@
         <v>670</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B17" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B18" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B19" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14 B2:B11">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A1048576 A1:A16">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A19">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B20">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C33">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4735,7 +4876,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B11">
         <v>7701983954</v>
@@ -4743,7 +4884,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B12">
         <v>6102040980</v>
@@ -4751,7 +4892,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B13">
         <v>2632805194</v>
@@ -4759,13 +4900,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4774,10 +4915,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,18 +4949,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B3" t="s">
         <v>462</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B4" t="s">
         <v>648</v>
@@ -4828,7 +4969,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B5" t="s">
         <v>526</v>
@@ -4839,39 +4980,39 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B6" t="s">
         <v>526</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B8" t="s">
         <v>717</v>
-      </c>
-      <c r="B8" t="s">
-        <v>718</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B9" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -4956,10 +5097,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>691</v>
+      </c>
+      <c r="B19" t="s">
         <v>692</v>
-      </c>
-      <c r="B19" t="s">
-        <v>693</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -4987,7 +5128,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="B22" t="s">
         <v>503</v>
@@ -4998,7 +5139,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="B23" t="s">
         <v>503</v>
@@ -5009,7 +5150,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="B24" t="s">
         <v>450</v>
@@ -5018,10 +5159,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>699</v>
+      </c>
+      <c r="B25" t="s">
         <v>700</v>
-      </c>
-      <c r="B25" t="s">
-        <v>701</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -5090,29 +5231,29 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B32" t="s">
         <v>678</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B33" t="s">
         <v>678</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B34" t="s">
         <v>680</v>
@@ -5121,7 +5262,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B35" t="s">
         <v>679</v>
@@ -5130,64 +5271,87 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>735</v>
-      </c>
-      <c r="B36" t="s">
-        <v>678</v>
+        <v>764</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>736</v>
-      </c>
-      <c r="B37" t="s">
-        <v>737</v>
+        <v>760</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="B38" t="s">
-        <v>739</v>
+        <v>767</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>762</v>
+      </c>
+      <c r="B39" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:C17">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="B36:B1048576 B21:B31 B2:B19">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+  <conditionalFormatting sqref="B38:B1048576 B21:B31 B2:B19">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C1048576 C2:C31">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  <conditionalFormatting sqref="C2:C31 C37:C1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A31 A1:A19 A36:A37 A39:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  <conditionalFormatting sqref="A37:A38 A21:A31 A1:A19 A40:A1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B35">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  <conditionalFormatting sqref="C32:C36">
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A35">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5225,7 +5389,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5236,7 +5400,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,26 +5494,26 @@
         <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B6" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5735,7 +5899,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5892,8 +6056,8 @@
       <c r="A8" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>681</v>
+      <c r="B8" s="30">
+        <v>3972</v>
       </c>
       <c r="C8" s="29">
         <v>6</v>
@@ -5910,7 +6074,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B9" s="30">
         <v>3973</v>
@@ -5930,25 +6094,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C6 A10:C1048576 C7">
-    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F1">
-    <cfRule type="duplicateValues" dxfId="60" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="59" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8 C9">
-    <cfRule type="duplicateValues" dxfId="57" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5959,7 +6123,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C19" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6094,7 +6258,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B9" t="str">
         <f>Кредит.организация!$B$2</f>
@@ -6104,24 +6268,24 @@
         <v>502</v>
       </c>
       <c r="E9" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C9">
-    <cfRule type="duplicateValues" dxfId="54" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E9">
-    <cfRule type="duplicateValues" dxfId="53" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B9">
-    <cfRule type="duplicateValues" dxfId="52" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="19"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{43C1DEEB-55AC-4E54-9128-F5EDF787539C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>ПИФ</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{47DF9AEA-3927-459D-905E-971FB7ED2202}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>БАНК</formula1>
     </dataValidation>
   </dataValidations>
@@ -6134,7 +6298,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6162,14 +6326,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>A2</f>
-        <v>42002810900070000221</v>
+        <v>00000000000000000000</v>
       </c>
       <c r="D2" t="s">
         <v>471</v>
@@ -6177,10 +6341,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C4" si="0">A3</f>
@@ -6192,10 +6356,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6241,31 +6405,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B5:B8">
-    <cfRule type="duplicateValues" dxfId="51" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1 A5:B1048576 A2:A4">
-    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C40">
-    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{75675359-53BE-4655-96BF-E324FFEA8436}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>БАНК</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{83D0023E-2E24-4B06-8F7B-B8EE267EB5E1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>ПИФ</formula1>
     </dataValidation>
   </dataValidations>
@@ -6279,8 +6443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H29" sqref="H28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6315,10 +6479,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B4" t="s">
         <v>702</v>
-      </c>
-      <c r="B4" t="s">
-        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -6331,7 +6495,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,7 +6546,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7383,18 +7547,18 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B123" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B124" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -7583,10 +7747,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B1048576 A129 A1:B128">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8032,10 +8196,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Шаблоны/Идентификаторы.xlsx
+++ b/Шаблоны/Идентификаторы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сотрудник\YandexDisk-tovanchov\Git\XBRL_SCHA_Prirost\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11A0AA-2579-444B-9182-3E6B9699B74D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1923C6D-C885-4981-8DA7-95EC60FF4A70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="9660" tabRatio="839" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9660" tabRatio="839" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="УК АИФ ПИФ" sheetId="26" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="788">
   <si>
     <t>Идентификатор Кредитной организации</t>
   </si>
@@ -2190,15 +2190,6 @@
     <t>Договор №290/Д-СР от 12.08.2019 г</t>
   </si>
   <si>
-    <t>Кубань-Договор процентного займа К-8</t>
-  </si>
-  <si>
-    <t>К-8</t>
-  </si>
-  <si>
-    <t>2020-03-25</t>
-  </si>
-  <si>
     <t>Без обеспечения</t>
   </si>
   <si>
@@ -2262,15 +2253,9 @@
     <t>Азов-ДА-А-11/1-03/20</t>
   </si>
   <si>
-    <t>Азов-НДС_I кв/2020</t>
-  </si>
-  <si>
     <t>НДС</t>
   </si>
   <si>
-    <t>Азов-Налог на имущество_I кв/20</t>
-  </si>
-  <si>
     <t>Чернышова Ольга Петровна</t>
   </si>
   <si>
@@ -2322,9 +2307,6 @@
     <t>2020-04-10</t>
   </si>
   <si>
-    <t>Кубань-СД-04/20</t>
-  </si>
-  <si>
     <t>Общество с ограниченной ответственностью "Регистратор "ДонФАО"</t>
   </si>
   <si>
@@ -2337,18 +2319,9 @@
     <t>2020-04-16</t>
   </si>
   <si>
-    <t>Кубань-СД-05/20</t>
-  </si>
-  <si>
     <t>05/20</t>
   </si>
   <si>
-    <t>Кубань-СР-05/20</t>
-  </si>
-  <si>
-    <t>Кубань-УК-05/20</t>
-  </si>
-  <si>
     <t>Правила доверительного управления №3973-СД от 18.02.2020г.</t>
   </si>
   <si>
@@ -2455,18 +2428,107 @@
   </si>
   <si>
     <t>Проценты</t>
+  </si>
+  <si>
+    <t>Азов-А-55</t>
+  </si>
+  <si>
+    <t>А-55</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>ИП Волошина А.Ю.</t>
+  </si>
+  <si>
+    <t>ИП Волошина Анна Юрьевна</t>
+  </si>
+  <si>
+    <t>Азов-ДКПОН-А-56</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи объектов недвижимости № А-56 от 25.06.2020 г.</t>
+  </si>
+  <si>
+    <t>Азов-НДС_II кв/2020</t>
+  </si>
+  <si>
+    <t>Азов-Налог на имущество_II кв/20</t>
+  </si>
+  <si>
+    <t>616605411264</t>
+  </si>
+  <si>
+    <t>42002810900070000276</t>
+  </si>
+  <si>
+    <t>42002810500070000281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бухаров Д.Б. </t>
+  </si>
+  <si>
+    <t>Бухаров Дмитрий Борисович</t>
+  </si>
+  <si>
+    <t>Кубань-Договор процентного займа К-12</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>504210259018</t>
+  </si>
+  <si>
+    <t>Кубань-ДКППВ-К-11</t>
+  </si>
+  <si>
+    <t>Кубань-ДКППВ-К-13</t>
+  </si>
+  <si>
+    <t>Кубань-ДКППВ-К-14</t>
+  </si>
+  <si>
+    <t>Кубань-УК-06/20</t>
+  </si>
+  <si>
+    <t>Кубань-СД-06/20</t>
+  </si>
+  <si>
+    <t>Кубань-СР-06/20</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи простых векселей К-11</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи простых векселей К-13</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи простых векселей К-14</t>
+  </si>
+  <si>
+    <t>К-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2513,6 +2575,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2568,7 +2637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2589,7 +2658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2612,7 +2681,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2635,49 +2704,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <fill>
         <patternFill>
@@ -3441,7 +3482,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,10 +3521,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,42 +3703,59 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B22" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B23" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B24" t="s">
-        <v>744</v>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>764</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>773</v>
+      </c>
+      <c r="B26" t="s">
+        <v>774</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,19 +3834,19 @@
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3876,29 +3934,29 @@
       <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="23" t="s">
+        <v>761</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>667</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B15" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C15" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D15" s="28" t="s">
         <v>567</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="28" t="s">
-        <v>568</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -3910,7 +3968,7 @@
       <c r="B16" s="23"/>
       <c r="C16" s="26"/>
       <c r="D16" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -3918,17 +3976,11 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>668</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>644</v>
-      </c>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="28" t="s">
-        <v>641</v>
+        <v>569</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -3936,11 +3988,17 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>644</v>
+      </c>
       <c r="D18" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -3952,7 +4010,7 @@
       <c r="B19" s="23"/>
       <c r="C19" s="26"/>
       <c r="D19" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -3960,17 +4018,11 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>695</v>
-      </c>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="28" t="s">
-        <v>684</v>
+        <v>643</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -3979,16 +4031,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>750</v>
+        <v>690</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>751</v>
+        <v>691</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>752</v>
+        <v>692</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -3997,65 +4049,77 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>682</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>683</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>684</v>
-      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>728</v>
+      <c r="A24" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>787</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>729</v>
+        <v>776</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>763</v>
+        <v>721</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>749</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
@@ -4309,56 +4373,57 @@
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B10">
-    <cfRule type="duplicateValues" dxfId="47" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C1048576 A1:C16 A24:B24">
-    <cfRule type="duplicateValues" dxfId="46" priority="16"/>
+  <conditionalFormatting sqref="A27:C1048576 A25:B25 A1:C17">
+    <cfRule type="duplicateValues" dxfId="41" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="45" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C19 A17:B17">
-    <cfRule type="duplicateValues" dxfId="44" priority="14"/>
+  <conditionalFormatting sqref="A19:C20 A18:B18">
+    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="43" priority="12"/>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="duplicateValues" dxfId="38" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B21">
+    <cfRule type="duplicateValues" dxfId="37" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="duplicateValues" dxfId="36" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B24">
+    <cfRule type="duplicateValues" dxfId="35" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C24">
+    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="42" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="41" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
-    <cfRule type="duplicateValues" dxfId="40" priority="9"/>
+  <conditionalFormatting sqref="A26:B26">
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
-    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4479,10 +4544,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4491,10 +4556,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,18 +4618,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B7" s="2">
         <v>2309136240</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4572,17 +4645,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="92.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4592,9 +4664,6 @@
       <c r="B1" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>497</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4619,6 +4688,7 @@
       <c r="B4" t="s">
         <v>437</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -4627,6 +4697,7 @@
       <c r="B5" s="16" t="s">
         <v>438</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4635,146 +4706,156 @@
       <c r="B6" t="s">
         <v>522</v>
       </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B7" t="s">
         <v>523</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B8" t="s">
         <v>523</v>
       </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B9" t="s">
         <v>523</v>
       </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>766</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
         <v>440</v>
       </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
         <v>440</v>
       </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
         <v>440</v>
       </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>637</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>649</v>
+        <v>443</v>
+      </c>
+      <c r="B14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>675</v>
-      </c>
-      <c r="B15" t="s">
-        <v>639</v>
+        <v>637</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B16" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>753</v>
+        <v>671</v>
       </c>
       <c r="B17" t="s">
-        <v>676</v>
-      </c>
-      <c r="C17" t="s">
-        <v>768</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B18" t="s">
         <v>676</v>
       </c>
       <c r="C18" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>697</v>
+        <v>745</v>
       </c>
       <c r="B19" t="s">
-        <v>696</v>
+        <v>676</v>
+      </c>
+      <c r="C19" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="B20" t="s">
-        <v>720</v>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>716</v>
+      </c>
+      <c r="B21" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B14 B2:B11">
-    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
+  <conditionalFormatting sqref="B15 B2:B12">
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A1048576 A1:A16">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+  <conditionalFormatting sqref="A21:A1048576 A1:A17">
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A19">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+  <conditionalFormatting sqref="A18:A20">
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B20">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C33">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B18:B21">
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4782,10 +4863,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,7 +4957,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B11">
         <v>7701983954</v>
@@ -4884,7 +4965,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B12">
         <v>6102040980</v>
@@ -4892,21 +4973,30 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B13">
         <v>2632805194</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>Физ.лица!A26</f>
+        <v xml:space="preserve">Бухаров Д.Б. </v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>777</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4915,10 +5005,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4949,18 +5039,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B3" t="s">
         <v>462</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B4" t="s">
         <v>648</v>
@@ -4969,7 +5059,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>707</v>
+        <v>769</v>
       </c>
       <c r="B5" t="s">
         <v>526</v>
@@ -4980,39 +5070,39 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>705</v>
+        <v>768</v>
       </c>
       <c r="B6" t="s">
         <v>526</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B8" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="B9" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -5097,10 +5187,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B19" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -5128,7 +5218,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B22" t="s">
         <v>503</v>
@@ -5139,7 +5229,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B23" t="s">
         <v>503</v>
@@ -5150,7 +5240,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B24" t="s">
         <v>450</v>
@@ -5159,10 +5249,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B25" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -5231,127 +5321,143 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>725</v>
+        <v>782</v>
       </c>
       <c r="B32" t="s">
         <v>678</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>730</v>
+        <v>783</v>
       </c>
       <c r="B33" t="s">
-        <v>678</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>731</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>732</v>
+        <v>781</v>
       </c>
       <c r="B34" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="B35" t="s">
-        <v>679</v>
+        <v>784</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>764</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>731</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="B36" t="s">
+        <v>785</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>760</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>765</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="B37" t="s">
+        <v>786</v>
+      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>761</v>
-      </c>
-      <c r="B38" t="s">
-        <v>767</v>
+        <v>755</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>757</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>765</v>
+        <v>724</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>762</v>
-      </c>
-      <c r="B39" t="s">
-        <v>734</v>
+        <v>751</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>752</v>
+      </c>
+      <c r="B40" t="s">
+        <v>758</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>753</v>
+      </c>
+      <c r="B41" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:C17">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="B38:B1048576 B21:B31 B2:B19">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  <conditionalFormatting sqref="B40:B1048576 B21:B31 B2:B19">
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C31 C37:C1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+  <conditionalFormatting sqref="C39:C1048576 C2:C31">
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 A21:A31 A1:A19 A40:A1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+  <conditionalFormatting sqref="A39:A40 A21:A31 A1:A19 A42:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B35">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A35">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  <conditionalFormatting sqref="B38:B39">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  <conditionalFormatting sqref="B32:B37">
+    <cfRule type="duplicateValues" dxfId="6" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  <conditionalFormatting sqref="C32:C38">
+    <cfRule type="duplicateValues" dxfId="5" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  <conditionalFormatting sqref="A32:A37">
+    <cfRule type="duplicateValues" dxfId="4" priority="44"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5389,7 +5495,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5494,26 +5600,26 @@
         <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B6" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5524,7 +5630,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6074,7 +6180,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B9" s="30">
         <v>3973</v>
@@ -6094,25 +6200,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C6 A10:C1048576 C7">
-    <cfRule type="duplicateValues" dxfId="70" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F1">
-    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="68" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="67" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8 C9">
-    <cfRule type="duplicateValues" dxfId="66" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="65" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6258,7 +6364,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B9" t="str">
         <f>Кредит.организация!$B$2</f>
@@ -6268,18 +6374,18 @@
         <v>502</v>
       </c>
       <c r="E9" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C9">
-    <cfRule type="duplicateValues" dxfId="63" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E9">
-    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B9">
-    <cfRule type="duplicateValues" dxfId="61" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="19"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -6295,10 +6401,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6326,10 +6432,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>A2</f>
@@ -6341,14 +6447,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="B3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C4" si="0">A3</f>
-        <v>00000000000000000000</v>
+        <f t="shared" ref="C3:C5" si="0">A3</f>
+        <v>42002810900070000276</v>
       </c>
       <c r="D3" t="s">
         <v>665</v>
@@ -6356,24 +6462,36 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>703</v>
+        <v>772</v>
       </c>
       <c r="B4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C4" s="2" t="str">
+        <f t="shared" ref="C4" si="1">A4</f>
+        <v>42002810500070000281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>42002810400070000187</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="C5" s="20"/>
-    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6403,33 +6521,36 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B5:B8">
-    <cfRule type="duplicateValues" dxfId="60" priority="25"/>
+  <conditionalFormatting sqref="B1 B6:B9">
+    <cfRule type="duplicateValues" dxfId="55" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 A5:B1048576 A2:A4">
-    <cfRule type="duplicateValues" dxfId="59" priority="12"/>
+  <conditionalFormatting sqref="A6:B1048576 A1:B1 A2:A5">
+    <cfRule type="duplicateValues" dxfId="54" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40">
-    <cfRule type="duplicateValues" dxfId="58" priority="5"/>
+  <conditionalFormatting sqref="C2:C41">
+    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>БАНК</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>ПИФ</formula1>
     </dataValidation>
   </dataValidations>
@@ -6443,8 +6564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H29" sqref="H28:H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6479,10 +6600,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6667,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7547,18 +7668,18 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B123" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B124" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -7747,10 +7868,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B1048576 A129 A1:B128">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8196,10 +8317,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Шаблоны/Идентификаторы.xlsx
+++ b/Шаблоны/Идентификаторы.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сотрудник\YandexDisk-tovanchov\Git\XBRL_SCHA_Prirost\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сотрудник\YandexDisk-atovanchov\XBRL_SCHA_Prirost\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1923C6D-C885-4981-8DA7-95EC60FF4A70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671226E9-C8C5-4F3A-BB0E-0FD139B89C45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9660" tabRatio="839" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13005" windowHeight="11265" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="УК АИФ ПИФ" sheetId="26" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="792">
   <si>
     <t>Идентификатор Кредитной организации</t>
   </si>
@@ -2172,9 +2172,6 @@
     <t>Договор займа № Ц-7 от 27.02.2020 г.</t>
   </si>
   <si>
-    <t>РПИ -Договор_РПИ-7-02/20</t>
-  </si>
-  <si>
     <t>Договор процентного займа РПИ-5</t>
   </si>
   <si>
@@ -2250,9 +2247,6 @@
     <t>42002810400070000187</t>
   </si>
   <si>
-    <t>Азов-ДА-А-11/1-03/20</t>
-  </si>
-  <si>
     <t>НДС</t>
   </si>
   <si>
@@ -2262,15 +2256,6 @@
     <t>Чернышова О.П.</t>
   </si>
   <si>
-    <t>Азов-ДА-А-11/1-04/20</t>
-  </si>
-  <si>
-    <t>04/20</t>
-  </si>
-  <si>
-    <t>Азов-СД-04/20</t>
-  </si>
-  <si>
     <t>ООО_Парус</t>
   </si>
   <si>
@@ -2361,12 +2346,6 @@
     <t>Договор купли-продажи объектов недвижимости № А-54 от 06.05.2020 г.</t>
   </si>
   <si>
-    <t>Азов-УК-05/20</t>
-  </si>
-  <si>
-    <t>Азов-ДА-А-11/1-05/20</t>
-  </si>
-  <si>
     <t>00000000000000000000</t>
   </si>
   <si>
@@ -2379,143 +2358,176 @@
     <t>2020-06-30</t>
   </si>
   <si>
-    <t>РПИ -Договор_РПИ-5-06/20</t>
-  </si>
-  <si>
-    <t>РПИ -Договор_РПИ-5-06/20п</t>
-  </si>
-  <si>
-    <t>РПИ-СД-06/20</t>
-  </si>
-  <si>
-    <t>РПИ-СР-06/20</t>
-  </si>
-  <si>
-    <t>РПИ-УК-06/20</t>
-  </si>
-  <si>
     <t>ВК-6</t>
   </si>
   <si>
     <t>2020-06-08</t>
   </si>
   <si>
-    <t>Восток Капитал - СД-06/20</t>
-  </si>
-  <si>
-    <t>Восток Капитал - СР-06/20</t>
-  </si>
-  <si>
-    <t>Восток Капитал -УК-06/20</t>
-  </si>
-  <si>
     <t>Восток Капитал -Договор процентного займа ВК-6</t>
   </si>
   <si>
-    <t>Восток Капитал - СД-05/20</t>
+    <t>Договор №290/Ж-СД от 29.01.2020 г.</t>
+  </si>
+  <si>
+    <t>Договор №290/Ж-СР от 29.01.2020 г.</t>
+  </si>
+  <si>
+    <t>Осн долг</t>
+  </si>
+  <si>
+    <t>Проценты</t>
+  </si>
+  <si>
+    <t>Азов-А-55</t>
+  </si>
+  <si>
+    <t>А-55</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>ИП Волошина А.Ю.</t>
+  </si>
+  <si>
+    <t>ИП Волошина Анна Юрьевна</t>
+  </si>
+  <si>
+    <t>Азов-ДКПОН-А-56</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи объектов недвижимости № А-56 от 25.06.2020 г.</t>
+  </si>
+  <si>
+    <t>Азов-НДС_II кв/2020</t>
+  </si>
+  <si>
+    <t>Азов-Налог на имущество_II кв/20</t>
+  </si>
+  <si>
+    <t>616605411264</t>
+  </si>
+  <si>
+    <t>42002810900070000276</t>
+  </si>
+  <si>
+    <t>42002810500070000281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бухаров Д.Б. </t>
+  </si>
+  <si>
+    <t>Бухаров Дмитрий Борисович</t>
+  </si>
+  <si>
+    <t>Кубань-Договор процентного займа К-12</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>504210259018</t>
+  </si>
+  <si>
+    <t>Кубань-ДКППВ-К-11</t>
+  </si>
+  <si>
+    <t>Кубань-ДКППВ-К-13</t>
+  </si>
+  <si>
+    <t>Кубань-ДКППВ-К-14</t>
+  </si>
+  <si>
+    <t>Кубань-УК-06/20</t>
+  </si>
+  <si>
+    <t>Кубань-СД-06/20</t>
+  </si>
+  <si>
+    <t>Кубань-СР-06/20</t>
+  </si>
+  <si>
+    <t>К-12</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи простых векселей К-11</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи простых векселей К-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Договор купли-продажи простых векселей К-14 </t>
+  </si>
+  <si>
+    <t>Центр-ДА-Ц-12-06/20</t>
+  </si>
+  <si>
+    <t>Договор аренды недвижимого имущества №Ц-12 от 08.06.2020</t>
+  </si>
+  <si>
+    <t>Центр-С-01-05/20</t>
+  </si>
+  <si>
+    <t>Соглашение о фактическом использовании объектов недвижимости от 08.06.2020</t>
+  </si>
+  <si>
+    <t>РПИ -Договор_РПИ-5-07/20</t>
+  </si>
+  <si>
+    <t>РПИ -Договор_РПИ-5-07/20п</t>
+  </si>
+  <si>
+    <t>РПИ -Договор_РПИ-7-07/20</t>
+  </si>
+  <si>
+    <t>РПИ-СД-07/20</t>
+  </si>
+  <si>
+    <t>РПИ-СР-07/20</t>
+  </si>
+  <si>
+    <t>РПИ-УК-07/20</t>
+  </si>
+  <si>
+    <t>Восток Капитал - СД-07/20</t>
+  </si>
+  <si>
+    <t>Восток Капитал - СР-07/20</t>
+  </si>
+  <si>
+    <t>Восток Капитал -УК-07/20</t>
+  </si>
+  <si>
+    <t>07/20</t>
+  </si>
+  <si>
+    <t>Азов-ДА-А-11/1-06/20</t>
+  </si>
+  <si>
+    <t>Азов-УК-06/20</t>
   </si>
   <si>
     <t>06/20</t>
   </si>
   <si>
-    <t>Договор №290/Ж-СД от 29.01.2020 г.</t>
-  </si>
-  <si>
-    <t>Договор №290/Ж-СР от 29.01.2020 г.</t>
-  </si>
-  <si>
-    <t>Осн долг</t>
-  </si>
-  <si>
-    <t>Проценты</t>
-  </si>
-  <si>
-    <t>Азов-А-55</t>
-  </si>
-  <si>
-    <t>А-55</t>
-  </si>
-  <si>
-    <t>2020-06-10</t>
-  </si>
-  <si>
-    <t>ИП Волошина А.Ю.</t>
-  </si>
-  <si>
-    <t>ИП Волошина Анна Юрьевна</t>
-  </si>
-  <si>
-    <t>Азов-ДКПОН-А-56</t>
-  </si>
-  <si>
-    <t>Договор купли-продажи объектов недвижимости № А-56 от 25.06.2020 г.</t>
-  </si>
-  <si>
-    <t>Азов-НДС_II кв/2020</t>
-  </si>
-  <si>
-    <t>Азов-Налог на имущество_II кв/20</t>
-  </si>
-  <si>
-    <t>616605411264</t>
-  </si>
-  <si>
-    <t>42002810900070000276</t>
-  </si>
-  <si>
-    <t>42002810500070000281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бухаров Д.Б. </t>
-  </si>
-  <si>
-    <t>Бухаров Дмитрий Борисович</t>
-  </si>
-  <si>
-    <t>Кубань-Договор процентного займа К-12</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>504210259018</t>
-  </si>
-  <si>
-    <t>Кубань-ДКППВ-К-11</t>
-  </si>
-  <si>
-    <t>Кубань-ДКППВ-К-13</t>
-  </si>
-  <si>
-    <t>Кубань-ДКППВ-К-14</t>
-  </si>
-  <si>
-    <t>Кубань-УК-06/20</t>
-  </si>
-  <si>
-    <t>Кубань-СД-06/20</t>
-  </si>
-  <si>
-    <t>Кубань-СР-06/20</t>
-  </si>
-  <si>
-    <t>Договор купли-продажи простых векселей К-11</t>
-  </si>
-  <si>
-    <t>Договор купли-продажи простых векселей К-13</t>
-  </si>
-  <si>
-    <t>Договор купли-продажи простых векселей К-14</t>
-  </si>
-  <si>
-    <t>К-12</t>
+    <t>Азов-УК-07/20</t>
+  </si>
+  <si>
+    <t>Азов-СД-05/20</t>
+  </si>
+  <si>
+    <t>Азов-СД-06/20</t>
+  </si>
+  <si>
+    <t>Азов-СД-07/20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2576,13 +2588,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2637,7 +2642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2711,14 +2716,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3481,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,7 +3589,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,47 +3768,47 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>681</v>
+      </c>
+      <c r="B22" t="s">
         <v>682</v>
-      </c>
-      <c r="B22" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B23" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B24" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="B26" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3754,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3834,19 +3899,19 @@
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>684</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>685</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3935,13 +4000,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -4031,16 +4096,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>690</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="C21" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>692</v>
-      </c>
       <c r="D21" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -4049,16 +4114,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -4067,58 +4132,58 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>787</v>
+        <v>758</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>767</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4381,49 +4446,48 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B10">
-    <cfRule type="duplicateValues" dxfId="42" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C1048576 A25:B25 A1:C17">
-    <cfRule type="duplicateValues" dxfId="41" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="40" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C20 A18:B18">
-    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="38" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="37" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="36" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B24">
-    <cfRule type="duplicateValues" dxfId="35" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C24">
-    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4432,7 +4496,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4544,10 +4608,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4618,7 +4682,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B7" s="2">
         <v>2309136240</v>
@@ -4626,18 +4690,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4648,13 +4712,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4664,6 +4729,9 @@
       <c r="B1" s="7" t="s">
         <v>495</v>
       </c>
+      <c r="C1" s="7" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4710,7 +4778,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="B7" t="s">
         <v>523</v>
@@ -4719,34 +4787,34 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="B8" t="s">
-        <v>523</v>
+        <v>750</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>739</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>766</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>767</v>
+        <v>440</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
         <v>440</v>
@@ -4755,107 +4823,108 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
         <v>440</v>
       </c>
-      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>442</v>
-      </c>
-      <c r="B13" t="s">
-        <v>440</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>777</v>
       </c>
       <c r="B14" t="s">
-        <v>440</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>637</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>649</v>
+        <v>671</v>
+      </c>
+      <c r="B15" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>775</v>
+      </c>
+      <c r="B16" t="s">
         <v>675</v>
       </c>
-      <c r="B16" t="s">
-        <v>639</v>
+      <c r="C16" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>671</v>
+        <v>776</v>
       </c>
       <c r="B17" t="s">
-        <v>670</v>
+        <v>675</v>
+      </c>
+      <c r="C17" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>744</v>
+        <v>693</v>
       </c>
       <c r="B18" t="s">
-        <v>676</v>
-      </c>
-      <c r="C18" t="s">
-        <v>759</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="B19" t="s">
-        <v>676</v>
-      </c>
-      <c r="C19" t="s">
-        <v>760</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>694</v>
+        <v>771</v>
       </c>
       <c r="B20" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>716</v>
+        <v>773</v>
       </c>
       <c r="B21" t="s">
-        <v>715</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B15 B2:B12">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+  <conditionalFormatting sqref="B13 B2:B10">
+    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A1048576 A1:A17">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+  <conditionalFormatting sqref="A19:A1048576 A1:A15">
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A20">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+  <conditionalFormatting sqref="A16:A18">
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B21">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+  <conditionalFormatting sqref="B16:B19 B21">
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4866,7 +4935,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4957,7 +5026,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B11">
         <v>7701983954</v>
@@ -4965,7 +5034,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B12">
         <v>6102040980</v>
@@ -4973,7 +5042,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B13">
         <v>2632805194</v>
@@ -4985,18 +5054,18 @@
         <v xml:space="preserve">Бухаров Д.Б. </v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5005,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5039,425 +5108,464 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="B3" t="s">
         <v>462</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>706</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>707</v>
+        <v>788</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C5" t="s">
-        <v>645</v>
+        <v>648</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>648</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>710</v>
+        <v>791</v>
       </c>
       <c r="B7" t="s">
-        <v>713</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="B8" t="s">
-        <v>712</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="C8" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="B9" t="s">
-        <v>737</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>705</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>706</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>731</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>732</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B13" t="s">
-        <v>498</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>452</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>651</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
-        <v>652</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>449</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B15" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="B16" t="s">
-        <v>460</v>
+        <v>498</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>457</v>
+        <v>651</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>652</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>688</v>
+        <v>499</v>
       </c>
       <c r="B19" t="s">
-        <v>689</v>
+        <v>460</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>578</v>
+        <v>457</v>
       </c>
       <c r="B20" t="s">
-        <v>455</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>579</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="B21" t="s">
-        <v>456</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>579</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>746</v>
+        <v>687</v>
       </c>
       <c r="B22" t="s">
-        <v>503</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>504</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>747</v>
+        <v>578</v>
       </c>
       <c r="B23" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>748</v>
+        <v>580</v>
       </c>
       <c r="B24" t="s">
-        <v>450</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="B25" t="s">
-        <v>697</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>653</v>
+        <v>779</v>
       </c>
       <c r="B26" t="s">
-        <v>655</v>
+        <v>503</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>654</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>656</v>
+        <v>780</v>
       </c>
       <c r="B27" t="s">
-        <v>657</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>654</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="B28" t="s">
-        <v>658</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>654</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B29" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B30" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B31" t="s">
-        <v>674</v>
+        <v>658</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>782</v>
+        <v>661</v>
       </c>
       <c r="B32" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>724</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>783</v>
+        <v>663</v>
       </c>
       <c r="B33" t="s">
-        <v>680</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>781</v>
+        <v>673</v>
       </c>
       <c r="B34" t="s">
-        <v>679</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>674</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="B35" t="s">
-        <v>784</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>677</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="B36" t="s">
-        <v>785</v>
+        <v>679</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="B37" t="s">
-        <v>786</v>
+        <v>678</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>755</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>724</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B38" t="s">
+        <v>768</v>
+      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>751</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>756</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="B39" t="s">
+        <v>769</v>
+      </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="B40" t="s">
-        <v>758</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>756</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>753</v>
-      </c>
-      <c r="B41" t="s">
-        <v>725</v>
+        <v>781</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>782</v>
+      </c>
+      <c r="B42" t="s">
+        <v>741</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>783</v>
+      </c>
+      <c r="B43" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:C17">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="B40:B1048576 B21:B31 B2:B19">
-    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+  <conditionalFormatting sqref="B42:B1048576 B24:B34 B2:B3 B5:B22">
+    <cfRule type="duplicateValues" dxfId="21" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C1048576 C2:C31">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+  <conditionalFormatting sqref="C41:C1048576 C2:C3 C5 C8:C34">
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A40 A21:A31 A1:A19 A42:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  <conditionalFormatting sqref="A41:A42 A24:A34 A1:A3 A44:A1048576 A5:A22">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  <conditionalFormatting sqref="B35:B37 B40">
+    <cfRule type="duplicateValues" dxfId="13" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A40">
+    <cfRule type="duplicateValues" dxfId="12" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B39">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B37">
-    <cfRule type="duplicateValues" dxfId="6" priority="42"/>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="10" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C38">
-    <cfRule type="duplicateValues" dxfId="5" priority="43"/>
+  <conditionalFormatting sqref="C35:C40">
+    <cfRule type="duplicateValues" dxfId="9" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A37">
-    <cfRule type="duplicateValues" dxfId="4" priority="44"/>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5600,15 +5708,15 @@
         <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B6" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +5774,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,7 +6113,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6180,7 +6288,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B9" s="30">
         <v>3973</v>
@@ -6200,25 +6308,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C6 A10:C1048576 C7">
-    <cfRule type="duplicateValues" dxfId="65" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F1">
-    <cfRule type="duplicateValues" dxfId="64" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="63" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="62" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8 C9">
-    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6229,7 +6337,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C18:C19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6349,7 +6457,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B8" t="str">
         <f>Кредит.организация!$B$2</f>
@@ -6364,7 +6472,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B9" t="str">
         <f>Кредит.организация!$B$2</f>
@@ -6374,18 +6482,18 @@
         <v>502</v>
       </c>
       <c r="E9" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C9">
-    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E9">
-    <cfRule type="duplicateValues" dxfId="57" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B9">
-    <cfRule type="duplicateValues" dxfId="56" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="19"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -6404,7 +6512,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6432,10 +6540,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>A2</f>
@@ -6447,13 +6555,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="B3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C5" si="0">A3</f>
+        <f t="shared" ref="C3:C4" si="0">A3</f>
         <v>42002810900070000276</v>
       </c>
       <c r="D3" t="s">
@@ -6462,13 +6570,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="B4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" ref="C4" si="1">A4</f>
+        <f t="shared" si="0"/>
         <v>42002810500070000281</v>
       </c>
       <c r="D4" t="s">
@@ -6477,13 +6585,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5" si="1">A5</f>
         <v>42002810400070000187</v>
       </c>
       <c r="D5" t="s">
@@ -6526,25 +6634,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B6:B9">
-    <cfRule type="duplicateValues" dxfId="55" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B1048576 A1:B1 A2:A5">
-    <cfRule type="duplicateValues" dxfId="54" priority="12"/>
+  <conditionalFormatting sqref="A6:B1048576 A1:B1 A2 A5">
+    <cfRule type="duplicateValues" dxfId="63" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C41">
-    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
+  <conditionalFormatting sqref="C2 C5:C41">
+    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+  <conditionalFormatting sqref="B2 B5">
+    <cfRule type="duplicateValues" dxfId="61" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A4">
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C4">
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -6600,10 +6717,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B4" t="s">
         <v>698</v>
-      </c>
-      <c r="B4" t="s">
-        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -6667,7 +6784,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7668,18 +7785,18 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B123" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B124" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -7868,10 +7985,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B1048576 A129 A1:B128">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8317,10 +8434,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B8">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Шаблоны/Идентификаторы.xlsx
+++ b/Шаблоны/Идентификаторы.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сотрудник\YandexDisk-atovanchov\XBRL_SCHA_Prirost\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671226E9-C8C5-4F3A-BB0E-0FD139B89C45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18BF566-2B11-4841-B9C6-6EC207EA43E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="MgGB1X1vLaAQhAWWs6ZCVpdGNWD5vDC/K6NAzTgyFrRWph3x2LNg7iOyafWMC50Y9UYav7Ml781yFDNijqMaow==" workbookSaltValue="ls0WjxqadhuHRj/Esv7i0A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13005" windowHeight="11265" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="УК АИФ ПИФ" sheetId="26" r:id="rId1"/>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="796">
   <si>
     <t>Идентификатор Кредитной организации</t>
   </si>
@@ -2521,6 +2522,18 @@
   </si>
   <si>
     <t>Азов-СД-07/20</t>
+  </si>
+  <si>
+    <t>Дон-Договор_Д-22</t>
+  </si>
+  <si>
+    <t>Дон-Договор_Д-23</t>
+  </si>
+  <si>
+    <t>Д-22</t>
+  </si>
+  <si>
+    <t>Д-23</t>
   </si>
 </sst>
 </file>
@@ -3544,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3576,6 +3589,61 @@
         <v>6164111800</v>
       </c>
       <c r="C2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6164111801</v>
+      </c>
+      <c r="C3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6164111802</v>
+      </c>
+      <c r="C4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6164111803</v>
+      </c>
+      <c r="C5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6164111804</v>
+      </c>
+      <c r="C6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6164111805</v>
+      </c>
+      <c r="C7" t="s">
         <v>488</v>
       </c>
     </row>
@@ -3817,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,138 +3982,134 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="D8" s="25"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B15" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C15" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>744</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B16" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C16" s="26" t="s">
         <v>746</v>
       </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>667</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B17" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D17" s="28" t="s">
         <v>567</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="28" t="s">
-        <v>569</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -4053,17 +4117,11 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>668</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>644</v>
-      </c>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="28" t="s">
-        <v>641</v>
+        <v>568</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -4075,7 +4133,7 @@
       <c r="B19" s="23"/>
       <c r="C19" s="26"/>
       <c r="D19" s="28" t="s">
-        <v>642</v>
+        <v>569</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -4083,11 +4141,17 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>644</v>
+      </c>
       <c r="D20" s="28" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -4095,17 +4159,11 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>689</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>690</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>691</v>
-      </c>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="28" t="s">
-        <v>680</v>
+        <v>642</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -4113,17 +4171,11 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>735</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>736</v>
-      </c>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="28" t="s">
-        <v>680</v>
+        <v>643</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -4132,71 +4184,95 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>680</v>
       </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>680</v>
       </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>716</v>
+      <c r="A25" s="27" t="s">
+        <v>712</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>739</v>
+      <c r="A26" s="27" t="s">
+        <v>758</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
@@ -4444,47 +4520,59 @@
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B10">
+  <conditionalFormatting sqref="B1:B12">
     <cfRule type="duplicateValues" dxfId="48" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C1048576 A25:B25 A1:C17">
+  <conditionalFormatting sqref="A29:C1048576 A27:B27 A1:C19">
     <cfRule type="duplicateValues" dxfId="47" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="46" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C20 A18:B18">
+  <conditionalFormatting sqref="A21:C22 A20:B20">
     <cfRule type="duplicateValues" dxfId="45" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C20">
     <cfRule type="duplicateValues" dxfId="44" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
+  <conditionalFormatting sqref="A23:B23">
     <cfRule type="duplicateValues" dxfId="43" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="C23">
     <cfRule type="duplicateValues" dxfId="42" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B24">
+  <conditionalFormatting sqref="A25:B26">
     <cfRule type="duplicateValues" dxfId="41" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C24">
+  <conditionalFormatting sqref="C25:C26">
     <cfRule type="duplicateValues" dxfId="40" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C27">
     <cfRule type="duplicateValues" dxfId="39" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
+  <conditionalFormatting sqref="A24:B24">
     <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C24">
     <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
+  <conditionalFormatting sqref="A28:B28">
     <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C28">
     <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5076,7 +5164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
